--- a/document/data source_課程資料/普高/skill_curriculum/skill_curriculum_數學甲(下).xlsx
+++ b/document/data source_課程資料/普高/skill_curriculum/skill_curriculum_數學甲(下).xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\math-master\document\data source_課程資料\普高\skill_curriculum\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11505"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="規則一樣 接著是數學數學甲(下) skill_curricul" sheetId="1" r:id="rId4"/>
+    <sheet name="規則一樣 接著是數學數學甲(下) skill_curricul" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -247,17 +255,25 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -266,36 +282,43 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -485,20 +508,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I38"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -527,7 +555,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -535,7 +563,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -547,16 +575,16 @@
         <v>13</v>
       </c>
       <c r="G2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I2" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -564,7 +592,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
@@ -576,16 +604,16 @@
         <v>15</v>
       </c>
       <c r="G3" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I3" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -593,7 +621,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
@@ -605,16 +633,16 @@
         <v>17</v>
       </c>
       <c r="G4" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I4" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -622,7 +650,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
@@ -634,16 +662,16 @@
         <v>17</v>
       </c>
       <c r="G5" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H5" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I5" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -651,7 +679,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
@@ -663,16 +691,16 @@
         <v>17</v>
       </c>
       <c r="G6" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H6" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="I6" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -680,7 +708,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -692,16 +720,16 @@
         <v>22</v>
       </c>
       <c r="G7" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I7" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -709,7 +737,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
@@ -721,16 +749,16 @@
         <v>22</v>
       </c>
       <c r="G8" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H8" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I8" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -738,7 +766,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>11</v>
@@ -750,16 +778,16 @@
         <v>22</v>
       </c>
       <c r="G9" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H9" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="I9" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
@@ -767,7 +795,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>11</v>
@@ -779,16 +807,16 @@
         <v>26</v>
       </c>
       <c r="G10" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I10" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -796,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>11</v>
@@ -808,16 +836,16 @@
         <v>26</v>
       </c>
       <c r="G11" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H11" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I11" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -825,7 +853,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>11</v>
@@ -837,16 +865,16 @@
         <v>30</v>
       </c>
       <c r="G12" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I12" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
@@ -854,7 +882,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>11</v>
@@ -866,16 +894,16 @@
         <v>30</v>
       </c>
       <c r="G13" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H13" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I13" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
@@ -883,7 +911,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>11</v>
@@ -895,16 +923,16 @@
         <v>33</v>
       </c>
       <c r="G14" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I14" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>34</v>
       </c>
@@ -912,7 +940,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>11</v>
@@ -924,16 +952,16 @@
         <v>33</v>
       </c>
       <c r="G15" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H15" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I15" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
@@ -941,7 +969,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>11</v>
@@ -953,16 +981,16 @@
         <v>36</v>
       </c>
       <c r="G16" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I16" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
@@ -970,7 +998,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>11</v>
@@ -982,16 +1010,16 @@
         <v>36</v>
       </c>
       <c r="G17" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H17" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I17" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
@@ -999,7 +1027,7 @@
         <v>10</v>
       </c>
       <c r="C18" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>11</v>
@@ -1011,16 +1039,16 @@
         <v>36</v>
       </c>
       <c r="G18" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H18" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="I18" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -1028,7 +1056,7 @@
         <v>10</v>
       </c>
       <c r="C19" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>11</v>
@@ -1040,16 +1068,16 @@
         <v>41</v>
       </c>
       <c r="G19" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I19" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>42</v>
       </c>
@@ -1057,7 +1085,7 @@
         <v>10</v>
       </c>
       <c r="C20" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>11</v>
@@ -1069,16 +1097,16 @@
         <v>43</v>
       </c>
       <c r="G20" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I20" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>44</v>
       </c>
@@ -1086,7 +1114,7 @@
         <v>10</v>
       </c>
       <c r="C21" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>11</v>
@@ -1098,16 +1126,16 @@
         <v>43</v>
       </c>
       <c r="G21" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H21" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I21" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>45</v>
       </c>
@@ -1115,7 +1143,7 @@
         <v>10</v>
       </c>
       <c r="C22" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>11</v>
@@ -1127,16 +1155,16 @@
         <v>46</v>
       </c>
       <c r="G22" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I22" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>47</v>
       </c>
@@ -1144,7 +1172,7 @@
         <v>10</v>
       </c>
       <c r="C23" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>11</v>
@@ -1156,16 +1184,16 @@
         <v>46</v>
       </c>
       <c r="G23" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H23" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I23" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>48</v>
       </c>
@@ -1173,7 +1201,7 @@
         <v>10</v>
       </c>
       <c r="C24" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>11</v>
@@ -1185,16 +1213,16 @@
         <v>50</v>
       </c>
       <c r="G24" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I24" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>51</v>
       </c>
@@ -1202,7 +1230,7 @@
         <v>10</v>
       </c>
       <c r="C25" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>11</v>
@@ -1214,16 +1242,16 @@
         <v>52</v>
       </c>
       <c r="G25" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H25" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I25" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>53</v>
       </c>
@@ -1231,7 +1259,7 @@
         <v>10</v>
       </c>
       <c r="C26" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>11</v>
@@ -1243,16 +1271,16 @@
         <v>52</v>
       </c>
       <c r="G26" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H26" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I26" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>54</v>
       </c>
@@ -1260,7 +1288,7 @@
         <v>10</v>
       </c>
       <c r="C27" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>11</v>
@@ -1272,16 +1300,16 @@
         <v>55</v>
       </c>
       <c r="G27" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H27" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I27" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
@@ -1289,7 +1317,7 @@
         <v>10</v>
       </c>
       <c r="C28" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>11</v>
@@ -1301,16 +1329,16 @@
         <v>58</v>
       </c>
       <c r="G28" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H28" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I28" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>59</v>
       </c>
@@ -1318,7 +1346,7 @@
         <v>10</v>
       </c>
       <c r="C29" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>11</v>
@@ -1330,16 +1358,16 @@
         <v>60</v>
       </c>
       <c r="G29" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H29" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I29" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>61</v>
       </c>
@@ -1347,7 +1375,7 @@
         <v>10</v>
       </c>
       <c r="C30" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>11</v>
@@ -1359,16 +1387,16 @@
         <v>60</v>
       </c>
       <c r="G30" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H30" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I30" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>62</v>
       </c>
@@ -1376,7 +1404,7 @@
         <v>10</v>
       </c>
       <c r="C31" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>11</v>
@@ -1388,16 +1416,16 @@
         <v>60</v>
       </c>
       <c r="G31" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H31" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="I31" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>63</v>
       </c>
@@ -1405,7 +1433,7 @@
         <v>10</v>
       </c>
       <c r="C32" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>11</v>
@@ -1417,16 +1445,16 @@
         <v>64</v>
       </c>
       <c r="G32" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H32" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I32" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>65</v>
       </c>
@@ -1434,7 +1462,7 @@
         <v>10</v>
       </c>
       <c r="C33" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>11</v>
@@ -1446,16 +1474,16 @@
         <v>67</v>
       </c>
       <c r="G33" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H33" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I33" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>68</v>
       </c>
@@ -1463,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="C34" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>11</v>
@@ -1475,16 +1503,16 @@
         <v>69</v>
       </c>
       <c r="G34" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H34" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I34" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>70</v>
       </c>
@@ -1492,7 +1520,7 @@
         <v>10</v>
       </c>
       <c r="C35" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>11</v>
@@ -1504,16 +1532,16 @@
         <v>69</v>
       </c>
       <c r="G35" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H35" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I35" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>71</v>
       </c>
@@ -1521,7 +1549,7 @@
         <v>10</v>
       </c>
       <c r="C36" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>11</v>
@@ -1533,16 +1561,16 @@
         <v>72</v>
       </c>
       <c r="G36" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H36" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I36" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>73</v>
       </c>
@@ -1550,7 +1578,7 @@
         <v>10</v>
       </c>
       <c r="C37" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>11</v>
@@ -1562,16 +1590,16 @@
         <v>74</v>
       </c>
       <c r="G37" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H37" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I37" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>75</v>
       </c>
@@ -1579,7 +1607,7 @@
         <v>10</v>
       </c>
       <c r="C38" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>11</v>
@@ -1591,16 +1619,18 @@
         <v>76</v>
       </c>
       <c r="G38" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H38" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I38" s="1">
-        <v>1.0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>